--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -100,10 +100,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1202,25 +1202,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.683982683982684</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1228,25 +1228,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="M19">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1332,25 +1332,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6036585365853658</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L23">
         <v>198</v>
       </c>
       <c r="M23">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="10:17">
